--- a/沪江/听力列表.xlsx
+++ b/沪江/听力列表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="70">
   <si>
     <t>Link</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -295,6 +295,24 @@
   </si>
   <si>
     <t>holiday favorites; So it's music; but that's central; It's really; get up and link arms; who plays a common man</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://app.hujiang.com/listen/70892/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://app.hujiang.com/listen/71133/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网店实体店_谁主沉浮(1_2).mp3</t>
+  </si>
+  <si>
+    <t>网店实体店_谁主沉浮(2_2).mp3</t>
+  </si>
+  <si>
+    <t>holiday gifts; step to herdaughter; made on the; and I usually; Analysts say; shopping has hit; made at least;and electronics</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -681,10 +699,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -933,6 +951,25 @@
       </c>
       <c r="B29" s="2" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A30" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+      <c r="A31" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -994,9 +1031,13 @@
     <hyperlink ref="B28" r:id="rId54"/>
     <hyperlink ref="A29" r:id="rId55"/>
     <hyperlink ref="B29" r:id="rId56"/>
+    <hyperlink ref="A30" r:id="rId57"/>
+    <hyperlink ref="A31" r:id="rId58"/>
+    <hyperlink ref="B30" r:id="rId59"/>
+    <hyperlink ref="B31" r:id="rId60"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId57"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId61"/>
 </worksheet>
 </file>
 

--- a/沪江/听力列表.xlsx
+++ b/沪江/听力列表.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Are" sheetId="2" r:id="rId2"/>
     <sheet name="And" sheetId="3" r:id="rId3"/>
+    <sheet name="that" sheetId="4" r:id="rId4"/>
+    <sheet name="a" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="74">
   <si>
     <t>Link</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -312,8 +314,41 @@
     <t>网店实体店_谁主沉浮(2_2).mp3</t>
   </si>
   <si>
-    <t>holiday gifts; step to herdaughter; made on the; and I usually; Analysts say; shopping has hit; made at least;and electronics</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <r>
+      <t xml:space="preserve">He says some "bricks-and-mortar" stores are also pleasing customers with services </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>that</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> set up or repair computers and electronics.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>and I usually get a better selection.</t>
+  </si>
+  <si>
+    <t>holiday gifts; step to herdaughter; made on the; and have them delivered; and I usually; Analysts say; shopping has hit records; made at least;and electronics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>And it's just a matter of time.</t>
+  </si>
+  <si>
+    <t>as well as items that are difficult to ship</t>
   </si>
 </sst>
 </file>
@@ -701,7 +736,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
@@ -953,7 +988,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3" ht="54" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
         <v>65</v>
       </c>
@@ -961,7 +996,7 @@
         <v>67</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="27" x14ac:dyDescent="0.15">
@@ -1043,10 +1078,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1065,6 +1100,11 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1078,7 +1118,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1105,4 +1145,75 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="67.75" customWidth="1"/>
+    <col min="2" max="2" width="41.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="38" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/沪江/听力列表.xlsx
+++ b/沪江/听力列表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="76">
   <si>
     <t>Link</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -311,9 +311,6 @@
     <t>网店实体店_谁主沉浮(1_2).mp3</t>
   </si>
   <si>
-    <t>网店实体店_谁主沉浮(2_2).mp3</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">He says some "bricks-and-mortar" stores are also pleasing customers with services </t>
     </r>
@@ -349,6 +346,18 @@
   </si>
   <si>
     <t>as well as items that are difficult to ship</t>
+  </si>
+  <si>
+    <t>网店实体店_谁主沉浮(2_2).mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>We're expecting 28 million deliveries on our peak day on December 20th, which is up about a million from last year, which was 27.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>social experience; shoppers enjoy; buying decision; can't always; It's rather a code cold process.deliver with goods more quickly; to visit; services like; deliver gifts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -734,10 +743,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -875,7 +884,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
@@ -883,7 +892,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>41</v>
       </c>
@@ -891,7 +900,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>34</v>
       </c>
@@ -899,7 +908,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>35</v>
       </c>
@@ -907,7 +916,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>36</v>
       </c>
@@ -915,7 +924,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>42</v>
       </c>
@@ -923,7 +932,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>44</v>
       </c>
@@ -931,7 +940,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>46</v>
       </c>
@@ -939,7 +948,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>48</v>
       </c>
@@ -947,7 +956,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>50</v>
       </c>
@@ -958,7 +967,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
         <v>51</v>
       </c>
@@ -969,7 +978,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
         <v>60</v>
       </c>
@@ -980,7 +989,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
         <v>62</v>
       </c>
@@ -988,7 +997,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="54" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
         <v>65</v>
       </c>
@@ -996,15 +1005,21 @@
         <v>67</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="54.75" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1080,8 +1095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1104,7 +1119,7 @@
     </row>
     <row r="4" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1171,7 +1186,7 @@
     </row>
     <row r="2" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1204,12 +1219,12 @@
     </row>
     <row r="2" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/沪江/听力列表.xlsx
+++ b/沪江/听力列表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="69">
   <si>
     <t>Link</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -276,25 +276,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>http://app.hujiang.com/listen/69982/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://app.hujiang.com/listen/70306/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阖家齐歌舞_圣诞共狂欢(2_2).mp3</t>
+  </si>
+  <si>
     <t>失业与就业-经济学家永恒的话题(2_2).mp3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://app.hujiang.com/listen/69982/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>are\are-失业与就业-经济学家永恒的话题(2_2).mp3</t>
+  </si>
+  <si>
+    <t>and\and-失业与就业-经济学家永恒的话题(2_2).mp3</t>
   </si>
   <si>
     <t>阖家齐歌舞_圣诞共狂欢(1_2).mp3</t>
-  </si>
-  <si>
-    <t>http://app.hujiang.com/listen/70306/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阖家齐歌舞_圣诞共狂欢(2_2).mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>holiday favorites; So it's music; but that's central; It's really; get up and link arms; who plays a common man</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>and\and-阖家齐歌舞_圣诞共狂欢(1_2).mp3</t>
+  </si>
+  <si>
+    <t>Since 1983, the Washington-based company has offered a wide variety of holiday favorites with music, dance and storytelling.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -302,7 +316,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -345,6 +359,12 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -367,7 +387,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -379,10 +399,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -395,7 +417,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -683,8 +705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -910,7 +932,7 @@
         <v>51</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>58</v>
@@ -918,21 +940,21 @@
     </row>
     <row r="28" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1005,12 +1027,13 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="62.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
@@ -1025,24 +1048,30 @@
       <c r="A2" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="B2" s="5" t="s">
+        <v>63</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="54.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="53.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1058,10 +1087,28 @@
       <c r="A2" s="4" t="s">
         <v>57</v>
       </c>
+      <c r="B2" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/沪江/听力列表.xlsx
+++ b/沪江/听力列表.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Are" sheetId="2" r:id="rId2"/>
     <sheet name="And" sheetId="3" r:id="rId3"/>
-    <sheet name="this" sheetId="4" r:id="rId4"/>
+    <sheet name="that" sheetId="4" r:id="rId4"/>
     <sheet name="a" sheetId="5" r:id="rId5"/>
     <sheet name="is" sheetId="6" r:id="rId6"/>
   </sheets>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="87">
   <si>
     <t>Link</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -381,6 +381,18 @@
   <si>
     <t>social experience; shoppers enjoy; buying decision; can't always; It's rather a code cold process.deliver with goods more quickly; And smart merchants; to visit; services like; deliver gifts</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>are\are-网店实体店_谁主沉浮(1_2).mp3</t>
+  </si>
+  <si>
+    <t>that\that-网店实体店_谁主沉浮(2_2).mp3</t>
+  </si>
+  <si>
+    <t>a\a-网店实体店_谁主沉浮(2_1).mp3</t>
+  </si>
+  <si>
+    <t>a\a-网店实体店_谁主沉浮(2_1)2.mp3</t>
   </si>
 </sst>
 </file>
@@ -801,7 +813,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:C31"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1135,8 +1147,8 @@
     <hyperlink ref="B29" r:id="rId56"/>
     <hyperlink ref="A30" r:id="rId57"/>
     <hyperlink ref="A31" r:id="rId58"/>
-    <hyperlink ref="B30" r:id="rId59"/>
-    <hyperlink ref="B31" r:id="rId60"/>
+    <hyperlink ref="B31" r:id="rId59"/>
+    <hyperlink ref="B30" r:id="rId60"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId61"/>
@@ -1148,7 +1160,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1177,11 +1189,15 @@
       <c r="A3" s="13" t="s">
         <v>75</v>
       </c>
+      <c r="B3" s="5" t="s">
+        <v>83</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1249,7 +1265,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1266,15 +1282,21 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>69</v>
       </c>
+      <c r="B2" s="5" t="s">
+        <v>84</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1283,7 +1305,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1303,14 +1325,24 @@
       <c r="A2" s="13" t="s">
         <v>73</v>
       </c>
+      <c r="B2" s="5" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="3" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>72</v>
       </c>
+      <c r="B3" s="5" t="s">
+        <v>86</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1320,24 +1352,24 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="1" max="1" width="60.125" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>70</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
         <v>74</v>
       </c>
     </row>

--- a/沪江/听力列表.xlsx
+++ b/沪江/听力列表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="92">
   <si>
     <t>Link</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -393,6 +393,24 @@
   </si>
   <si>
     <t>a\a-网店实体店_谁主沉浮(2_1)2.mp3</t>
+  </si>
+  <si>
+    <t>http://app.hujiang.com/listen/73126/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://app.hujiang.com/listen/73448/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>米氏神秘雕像重返美国(1_2).mp3</t>
+  </si>
+  <si>
+    <t>米氏神秘雕像重返美国(2_2).mp3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You know, I'm; even though it's; rough chiseled form; the sling that; quiver of errors arrows;I think it's more like David </t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -510,8 +528,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -524,7 +542,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -810,10 +828,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1084,6 +1102,25 @@
       </c>
       <c r="C31" s="10" t="s">
         <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A32" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A33" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1149,9 +1186,13 @@
     <hyperlink ref="A31" r:id="rId58"/>
     <hyperlink ref="B31" r:id="rId59"/>
     <hyperlink ref="B30" r:id="rId60"/>
+    <hyperlink ref="A32" r:id="rId61"/>
+    <hyperlink ref="A33" r:id="rId62"/>
+    <hyperlink ref="B32" r:id="rId63"/>
+    <hyperlink ref="B33" r:id="rId64"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId61"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId65"/>
 </worksheet>
 </file>
 

--- a/沪江/听力列表.xlsx
+++ b/沪江/听力列表.xlsx
@@ -409,7 +409,7 @@
     <t>米氏神秘雕像重返美国(2_2).mp3</t>
   </si>
   <si>
-    <t xml:space="preserve">You know, I'm; even though it's; rough chiseled form; the sling that; quiver of errors arrows;I think it's more like David </t>
+    <t xml:space="preserve">You know, I'm; even though it's; rough chiseled form; the sling that; quiver of arrows;I think it's more like David </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -528,8 +528,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -542,7 +542,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -830,8 +830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/沪江/听力列表.xlsx
+++ b/沪江/听力列表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="97">
   <si>
     <t>Link</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -406,10 +406,30 @@
     <t>米氏神秘雕像重返美国(1_2).mp3</t>
   </si>
   <si>
+    <t xml:space="preserve">You know, I'm; even though it's; rough chiseled form; the sling that; quiver of arrows;I think it's more like David </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>米氏神秘雕像重返美国(2_2).mp3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You know, I'm; even though it's; rough chiseled form; the sling that; quiver of arrows;I think it's more like David </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://app.hujiang.com/listen/75027/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://app.hujiang.com/listen/74796/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>里根故居拆除惹争议(2_2).mp3</t>
+  </si>
+  <si>
+    <t>里根故居拆除惹争议(1_2).mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">borrowing; born; </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -528,8 +548,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -542,7 +562,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -828,9 +848,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
@@ -1112,15 +1132,34 @@
         <v>89</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A33" s="11" t="s">
         <v>88</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>90</v>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+      <c r="A34" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+      <c r="A35" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1190,9 +1229,13 @@
     <hyperlink ref="A33" r:id="rId62"/>
     <hyperlink ref="B32" r:id="rId63"/>
     <hyperlink ref="B33" r:id="rId64"/>
+    <hyperlink ref="A35" r:id="rId65"/>
+    <hyperlink ref="A34" r:id="rId66"/>
+    <hyperlink ref="B34" r:id="rId67"/>
+    <hyperlink ref="B35" r:id="rId68"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId65"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId69"/>
 </worksheet>
 </file>
 

--- a/沪江/听力列表.xlsx
+++ b/沪江/听力列表.xlsx
@@ -429,7 +429,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">borrowing; born; </t>
+    <t>borrowing; that Mr. Reagan; landmark status; born; Mr. Reagan spent;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>

--- a/沪江/听力列表.xlsx
+++ b/沪江/听力列表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="98">
   <si>
     <t>Link</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -410,26 +410,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>http://app.hujiang.com/listen/75027/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://app.hujiang.com/listen/74796/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>里根故居拆除惹争议(2_2).mp3</t>
+  </si>
+  <si>
+    <t>里根故居拆除惹争议(1_2).mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>borrowing; that Mr. Reagan; landmark status; born; Mr. Reagan spent;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>米氏神秘雕像重返美国(2_2).mp3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://app.hujiang.com/listen/75027/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://app.hujiang.com/listen/74796/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>里根故居拆除惹争议(2_2).mp3</t>
-  </si>
-  <si>
-    <t>里根故居拆除惹争议(1_2).mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>borrowing; that Mr. Reagan; landmark status; born; Mr. Reagan spent;</t>
+    <t>I'd probably be; is worth saving;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -548,8 +552,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -562,7 +566,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -850,8 +854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1140,26 +1144,29 @@
         <v>88</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A34" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B34" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A35" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/沪江/听力列表.xlsx
+++ b/沪江/听力列表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="102">
   <si>
     <t>Link</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -435,6 +435,20 @@
   <si>
     <t>I'd probably be; is worth saving;</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://app.hujiang.com/listen/76656/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://app.hujiang.com/listen/77012/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>颅内血栓被除_希拉里康复中(1_2).mp3</t>
+  </si>
+  <si>
+    <t>颅内血栓被除_希拉里康复中(2_2).mp3</t>
   </si>
 </sst>
 </file>
@@ -552,8 +566,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -566,7 +580,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -852,10 +866,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1167,6 +1181,22 @@
       </c>
       <c r="C35" s="1" t="s">
         <v>97</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+      <c r="A36" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+      <c r="A37" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1240,9 +1270,13 @@
     <hyperlink ref="A34" r:id="rId66"/>
     <hyperlink ref="B34" r:id="rId67"/>
     <hyperlink ref="B35" r:id="rId68"/>
+    <hyperlink ref="A36" r:id="rId69"/>
+    <hyperlink ref="A37" r:id="rId70"/>
+    <hyperlink ref="B36" r:id="rId71"/>
+    <hyperlink ref="B37" r:id="rId72"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId69"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId73"/>
 </worksheet>
 </file>
 

--- a/沪江/听力列表.xlsx
+++ b/沪江/听力列表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="103">
   <si>
     <t>Link</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -445,10 +445,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>颅内血栓被除_希拉里康复中(2_2).mp3</t>
+  </si>
+  <si>
     <t>颅内血栓被除_希拉里康复中(1_2).mp3</t>
-  </si>
-  <si>
-    <t>颅内血栓被除_希拉里康复中(2_2).mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> where it blocks; strains the heart;  works in a Wisconsin trauma center; Blood that doesn't; it's outside the blood vessels; cause a stroke; </t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -869,7 +874,7 @@
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1183,12 +1188,15 @@
         <v>97</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3" ht="54" x14ac:dyDescent="0.15">
       <c r="A36" s="11" t="s">
         <v>98</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>100</v>
+        <v>101</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="27" x14ac:dyDescent="0.15">
@@ -1196,7 +1204,7 @@
         <v>99</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/沪江/听力列表.xlsx
+++ b/沪江/听力列表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="104">
   <si>
     <t>Link</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -452,7 +452,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> where it blocks; strains the heart;  works in a Wisconsin trauma center; Blood that doesn't; it's outside the blood vessels; cause a stroke; </t>
+    <t xml:space="preserve">travel as First Lady; where it blocks; strains the heart;  works in a Wisconsin trauma center; Blood that doesn't; it's outside the blood vessels; cause a stroke; </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">they're adjusting; flying more; </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -874,7 +878,7 @@
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1205,6 +1209,9 @@
       </c>
       <c r="B37" s="11" t="s">
         <v>100</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/沪江/听力列表.xlsx
+++ b/沪江/听力列表.xlsx
@@ -878,7 +878,7 @@
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/沪江/听力列表.xlsx
+++ b/沪江/听力列表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="109">
   <si>
     <t>Link</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -457,6 +457,25 @@
   </si>
   <si>
     <t xml:space="preserve">they're adjusting; flying more; </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://app.hujiang.com/listen/78065/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://app.hujiang.com/listen/78412/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>议长换届，博纳蝉联(2_2).mp3</t>
+  </si>
+  <si>
+    <t>议长换届，博纳蝉联(1_2).mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">There were tense moments; In a sign of clashes; </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -875,10 +894,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1212,6 +1231,25 @@
       </c>
       <c r="C37" s="1" t="s">
         <v>103</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+      <c r="A38" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+      <c r="A39" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1289,9 +1327,13 @@
     <hyperlink ref="A37" r:id="rId70"/>
     <hyperlink ref="B36" r:id="rId71"/>
     <hyperlink ref="B37" r:id="rId72"/>
+    <hyperlink ref="A38" r:id="rId73"/>
+    <hyperlink ref="B38" r:id="rId74"/>
+    <hyperlink ref="A39" r:id="rId75"/>
+    <hyperlink ref="B39" r:id="rId76"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId73"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId77"/>
 </worksheet>
 </file>
 

--- a/沪江/听力列表.xlsx
+++ b/沪江/听力列表.xlsx
@@ -475,7 +475,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">There were tense moments; In a sign of clashes; </t>
+    <t>There were tense moments; In a sign of clashes;Our government;  Our economy is;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -594,8 +594,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -608,7 +608,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -896,7 +896,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
       <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>

--- a/沪江/听力列表.xlsx
+++ b/沪江/听力列表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="110">
   <si>
     <t>Link</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -476,6 +476,10 @@
   </si>
   <si>
     <t>There were tense moments; In a sign of clashes;Our government;  Our economy is;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stage an action on the House;  Capitol Hill will likely be a</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -897,7 +901,7 @@
   <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1244,12 +1248,15 @@
         <v>108</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="s">
         <v>105</v>
       </c>
       <c r="B39" s="11" t="s">
         <v>106</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/沪江/听力列表.xlsx
+++ b/沪江/听力列表.xlsx
@@ -479,7 +479,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>stage an action on the House;  Capitol Hill will likely be a</t>
+    <t>and had to rely on ; stage an action on the House;  Capitol Hill will likely be a; fight over raising</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -567,7 +567,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -596,10 +596,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -612,7 +615,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -901,7 +904,7 @@
   <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1255,7 +1258,7 @@
       <c r="B39" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="14" t="s">
         <v>109</v>
       </c>
     </row>

--- a/沪江/听力列表.xlsx
+++ b/沪江/听力列表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="114">
   <si>
     <t>Link</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -468,18 +468,33 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>议长换届，博纳蝉联(1_2).mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>There were tense moments; In a sign of clashes;Our government;  Our economy is;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>and had to rely on ; stage an action on the House;  Capitol Hill will likely be a; fight over raising</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://app.hujiang.com/listen/79554/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://app.hujiang.com/listen/79944/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伊核谈判将重启_折中方案难寻觅(1_2).mp3</t>
+  </si>
+  <si>
+    <t>伊核谈判将重启_折中方案难寻觅(2_2).mp3</t>
+  </si>
+  <si>
     <t>议长换届，博纳蝉联(2_2).mp3</t>
-  </si>
-  <si>
-    <t>议长换届，博纳蝉联(1_2).mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>There were tense moments; In a sign of clashes;Our government;  Our economy is;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>and had to rely on ; stage an action on the House;  Capitol Hill will likely be a; fight over raising</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -901,10 +916,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1245,10 +1260,10 @@
         <v>104</v>
       </c>
       <c r="B38" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="27.75" x14ac:dyDescent="0.2">
@@ -1256,10 +1271,26 @@
         <v>105</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C39" s="14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+      <c r="A40" s="11" t="s">
         <v>109</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+      <c r="A41" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1341,9 +1372,13 @@
     <hyperlink ref="B38" r:id="rId74"/>
     <hyperlink ref="A39" r:id="rId75"/>
     <hyperlink ref="B39" r:id="rId76"/>
+    <hyperlink ref="A40" r:id="rId77"/>
+    <hyperlink ref="A41" r:id="rId78"/>
+    <hyperlink ref="B40" r:id="rId79"/>
+    <hyperlink ref="B41" r:id="rId80"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId77"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId81"/>
 </worksheet>
 </file>
 

--- a/沪江/听力列表.xlsx
+++ b/沪江/听力列表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="115">
   <si>
     <t>Link</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -495,6 +495,10 @@
   </si>
   <si>
     <t>议长换届，博纳蝉联(2_2).mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">easing of economic sanctions; </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -919,7 +923,7 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1283,6 +1287,9 @@
       </c>
       <c r="B40" s="11" t="s">
         <v>111</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="27" x14ac:dyDescent="0.15">

--- a/沪江/听力列表.xlsx
+++ b/沪江/听力列表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="116">
   <si>
     <t>Link</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -499,6 +499,10 @@
   </si>
   <si>
     <t xml:space="preserve">easing of economic sanctions; </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">are under increasing; the entrepreneurs(ŏn′trə-prə-nûr); could resume the work;  </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -923,7 +927,7 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1298,6 +1302,9 @@
       </c>
       <c r="B41" s="11" t="s">
         <v>112</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/沪江/听力列表.xlsx
+++ b/沪江/听力列表.xlsx
@@ -502,7 +502,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">are under increasing; the entrepreneurs(ŏn′trə-prə-nûr); could resume the work;  </t>
+    <t xml:space="preserve">are under increasing; the entrepreneurs(ŏn′trə-prə-nûr); concerns of a possible; could resume the work; again a concern;  </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -624,8 +624,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -638,7 +638,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -926,8 +926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" topLeftCell="C37" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1296,7 +1296,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A41" s="11" t="s">
         <v>110</v>
       </c>

--- a/沪江/听力列表.xlsx
+++ b/沪江/听力列表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="121">
   <si>
     <t>Link</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -503,6 +503,24 @@
   </si>
   <si>
     <t xml:space="preserve">are under increasing; the entrepreneurs(ŏn′trə-prə-nûr); concerns of a possible; could resume the work; again a concern;  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://app.hujiang.com/listen/81058/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://app.hujiang.com/listen/81316/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美国总统就职典礼介绍(1_2).mp3</t>
+  </si>
+  <si>
+    <t>美国总统就职典礼介绍(2_2).mp3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the incumbent president; on to a second; conveys the strength and; one democratically elected; Awaiting them are; those who will serve </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -624,8 +642,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -638,7 +656,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -924,10 +942,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C37" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1305,6 +1323,25 @@
       </c>
       <c r="C41" s="1" t="s">
         <v>115</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="54" x14ac:dyDescent="0.15">
+      <c r="A42" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+      <c r="A43" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1390,9 +1427,13 @@
     <hyperlink ref="A41" r:id="rId78"/>
     <hyperlink ref="B40" r:id="rId79"/>
     <hyperlink ref="B41" r:id="rId80"/>
+    <hyperlink ref="A42" r:id="rId81"/>
+    <hyperlink ref="A43" r:id="rId82"/>
+    <hyperlink ref="B42" r:id="rId83"/>
+    <hyperlink ref="B43" r:id="rId84"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId81"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId85"/>
 </worksheet>
 </file>
 

--- a/沪江/听力列表.xlsx
+++ b/沪江/听力列表.xlsx
@@ -945,7 +945,7 @@
   <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/沪江/听力列表.xlsx
+++ b/沪江/听力列表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="126">
   <si>
     <t>Link</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -521,6 +521,24 @@
   </si>
   <si>
     <t xml:space="preserve">the incumbent president; on to a second; conveys the strength and; one democratically elected; Awaiting them are; those who will serve </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://app.hujiang.com/listen/90040/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新一年美国情咨文发表_国内话题成焦点(1_2).mp3</t>
+  </si>
+  <si>
+    <t>新一年美国情咨文发表_国内话题成焦点(2_2).mp3</t>
+  </si>
+  <si>
+    <t>http://app.hujiang.com/listen/90606/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">aimed to inspire; those hot button; But I think; I mean; </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -642,8 +660,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -656,7 +674,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -942,10 +960,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView tabSelected="1" topLeftCell="C40" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1342,6 +1360,25 @@
       </c>
       <c r="B43" s="11" t="s">
         <v>119</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+      <c r="A44" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+      <c r="A45" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1431,9 +1468,13 @@
     <hyperlink ref="A43" r:id="rId82"/>
     <hyperlink ref="B42" r:id="rId83"/>
     <hyperlink ref="B43" r:id="rId84"/>
+    <hyperlink ref="A44" r:id="rId85"/>
+    <hyperlink ref="B44" r:id="rId86"/>
+    <hyperlink ref="B45" r:id="rId87"/>
+    <hyperlink ref="A45" r:id="rId88"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId85"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId89"/>
 </worksheet>
 </file>
 
